--- a/OUTPUT_TP v2.xlsx
+++ b/OUTPUT_TP v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2489b4ab3e3a2fa6/Escritorio/David Guzzi/Github/MECMT04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_893D30CC2069949C16477B034162F2A3F681B05C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53856C94-EBCC-4598-BEB8-3A393CE58858}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_893D30CC2069949C16477B034162F2A3F681B05C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F692CF3-BB5B-4AB6-B779-E9973B9C31EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="describe" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>level_0</t>
   </si>
@@ -102,9 +102,6 @@
     <t>ARG</t>
   </si>
   <si>
-    <t>varianza_total</t>
-  </si>
-  <si>
     <t>varianza_media</t>
   </si>
   <si>
@@ -181,6 +178,45 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Agricultural land (1)</t>
+  </si>
+  <si>
+    <t>Arable land (2)</t>
+  </si>
+  <si>
+    <t>Agricultural exports (3)</t>
+  </si>
+  <si>
+    <t>Agricultural imports (4)</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry, and fishing, value added (5)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture (6)</t>
+  </si>
+  <si>
+    <t>Rural population (7)</t>
+  </si>
+  <si>
+    <t>Varianza total</t>
+  </si>
+  <si>
+    <t>Varianza media</t>
+  </si>
+  <si>
+    <t>Varianza generalizada</t>
+  </si>
+  <si>
+    <t>Varianza efectiva</t>
+  </si>
+  <si>
+    <t>Medida</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -191,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="187" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -304,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -345,18 +381,28 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,6 +429,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,9 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -686,28 +734,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,28 +1036,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1278,25 +1326,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,52 +1398,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="20.7109375" customWidth="1"/>
+    <col min="2" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>42</v>
+      <c r="C1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="13">
-        <v>2.992998776479025E-2</v>
-      </c>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -1404,15 +1450,13 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
+      <c r="A3" s="7">
+        <v>2</v>
       </c>
       <c r="B3" s="13">
         <v>1.4316401084298771E-2</v>
       </c>
-      <c r="C3" s="13">
-        <v>1.859196670157846E-2</v>
-      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1420,8 +1464,8 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" s="13">
         <v>-1.515865579011977E-3</v>
@@ -1429,17 +1473,15 @@
       <c r="C4" s="13">
         <v>-9.112962593445953E-4</v>
       </c>
-      <c r="D4" s="13">
-        <v>8.0985719592115894E-4</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>44</v>
+      <c r="A5" s="7">
+        <v>4</v>
       </c>
       <c r="B5" s="13">
         <v>-2.389217265734569E-5</v>
@@ -1450,16 +1492,14 @@
       <c r="D5" s="13">
         <v>5.5998098989905433E-5</v>
       </c>
-      <c r="E5" s="13">
-        <v>4.026964695070355E-5</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
+      <c r="A6" s="7">
+        <v>5</v>
       </c>
       <c r="B6" s="13">
         <v>-1.6690207346239979E-4</v>
@@ -1473,15 +1513,13 @@
       <c r="E6" s="13">
         <v>4.3027922572186631E-6</v>
       </c>
-      <c r="F6" s="13">
-        <v>2.6243085070306422E-4</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>41</v>
+      <c r="A7" s="7">
+        <v>6</v>
       </c>
       <c r="B7" s="13">
         <v>5.1290605412504184E-4</v>
@@ -1498,14 +1536,12 @@
       <c r="F7" s="13">
         <v>5.7187874940311297E-4</v>
       </c>
-      <c r="G7" s="13">
-        <v>1.933688968900467E-3</v>
-      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>42</v>
+      <c r="A8" s="14">
+        <v>7</v>
       </c>
       <c r="B8" s="13">
         <v>2.8736878277355639E-3</v>
@@ -1513,7 +1549,7 @@
       <c r="C8" s="13">
         <v>2.1628439233011328E-3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>-1.0303584647350271E-4</v>
       </c>
       <c r="E8" s="13">
@@ -1525,8 +1561,18 @@
       <c r="G8" s="13">
         <v>7.1724946709328277E-4</v>
       </c>
-      <c r="H8" s="13">
-        <v>1.266000929271255E-2</v>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <f>MAX(B3:G8)</f>
+        <v>1.4316401084298771E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
+        <f>MIN(B3:G8)</f>
+        <v>-1.515865579011977E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1543,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,24 +1625,12 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
-        <v>0.60690109472263931</v>
-      </c>
-      <c r="C2" s="13">
-        <v>-0.30789539899315671</v>
-      </c>
-      <c r="D2" s="13">
-        <v>-2.1762734500821598E-2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>-5.9552639934365582E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>6.7420387733485646E-2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.14762819388374479</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1605,21 +1639,11 @@
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
-        <v>-0.2348511539475972</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.37368210326160628</v>
-      </c>
-      <c r="E3" s="13">
-        <v>-0.25233732854976271</v>
-      </c>
-      <c r="F3" s="13">
-        <v>-0.19423598997980901</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.1409761032669942</v>
-      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1631,18 +1655,10 @@
       <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
-        <v>0.31008456582175209</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.35545655331205828</v>
-      </c>
-      <c r="F4" s="13">
-        <v>9.2595408481934371E-2</v>
-      </c>
-      <c r="G4" s="13">
-        <v>-3.2178597267696792E-2</v>
-      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1657,15 +1673,9 @@
       <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
-        <v>4.1855643499040772E-2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>6.3428972540994763E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.28991807739041409</v>
-      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1683,12 +1693,8 @@
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
-        <v>0.80279231201706025</v>
-      </c>
-      <c r="G6" s="13">
-        <v>-4.8468543150726517E-2</v>
-      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1709,9 +1715,7 @@
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
-        <v>0.14496391593165081</v>
-      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1720,7 +1724,7 @@
       <c r="B8" s="13">
         <v>0.1409761032669942</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>-3.2178597267696792E-2</v>
       </c>
       <c r="D8" s="13">
@@ -1743,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,36 +1759,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6.4228210421556658E-2</v>
-      </c>
       <c r="B2">
         <v>9.1754586316509512E-3</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>7.7537504186208253E-21</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>1.3399022512459171E-3</v>
       </c>
       <c r="E2">
@@ -1796,8 +1794,48 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>A2/7</f>
+        <f>B11/7</f>
         <v>9.1754586316509512E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="20">
+        <v>6.4228210421556658E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="20">
+        <v>9.1754586316509512E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="20">
+        <v>7.7537504186208253E-21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1.3399022512459171E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1823,16 +1861,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,25 +2008,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
